--- a/Excel-MATLAB.xlsx
+++ b/Excel-MATLAB.xlsx
@@ -325,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1024,6 +1024,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1043,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1384,6 +1396,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="메모" xfId="7" builtinId="10"/>
@@ -15150,10 +15174,70 @@
     <col min="10" max="10" width="11" style="44" customWidth="true"/>
     <col min="11" max="11" width="7.25" style="45" hidden="true" customWidth="true"/>
     <col min="12" max="12" width="3.5" style="62" customWidth="true"/>
-    <col min="13" max="13" width="11" style="57" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="5.375" style="54" customWidth="true"/>
-    <col min="15" max="379" width="5.375" style="44" customWidth="true"/>
+    <col min="13" max="13" width="10.25" style="57" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="7" style="54" customWidth="true"/>
+    <col min="15" max="15" width="7" style="44" customWidth="true"/>
     <col min="380" max="16384" width="9" style="44"/>
+    <col min="16" max="16" width="7" style="44" customWidth="true"/>
+    <col min="17" max="17" width="7" style="44" customWidth="true"/>
+    <col min="18" max="18" width="7" style="44" customWidth="true"/>
+    <col min="19" max="19" width="7" style="44" customWidth="true"/>
+    <col min="20" max="20" width="7" style="44" customWidth="true"/>
+    <col min="21" max="21" width="7" style="44" customWidth="true"/>
+    <col min="22" max="22" width="7" style="44" customWidth="true"/>
+    <col min="23" max="23" width="7" style="44" customWidth="true"/>
+    <col min="24" max="24" width="7" style="44" customWidth="true"/>
+    <col min="25" max="25" width="7" style="44" customWidth="true"/>
+    <col min="26" max="26" width="7" style="44" customWidth="true"/>
+    <col min="27" max="27" width="7" style="44" customWidth="true"/>
+    <col min="28" max="28" width="7" style="44" customWidth="true"/>
+    <col min="29" max="29" width="7" style="44" customWidth="true"/>
+    <col min="30" max="30" width="7" style="44" customWidth="true"/>
+    <col min="31" max="31" width="7" style="44" customWidth="true"/>
+    <col min="32" max="32" width="7" style="44" customWidth="true"/>
+    <col min="33" max="33" width="7" style="44" customWidth="true"/>
+    <col min="34" max="34" width="7" style="44" customWidth="true"/>
+    <col min="35" max="35" width="7" style="44" customWidth="true"/>
+    <col min="36" max="36" width="7" style="44" customWidth="true"/>
+    <col min="37" max="37" width="7" style="44" customWidth="true"/>
+    <col min="38" max="38" width="7" style="44" customWidth="true"/>
+    <col min="39" max="39" width="7" style="44" customWidth="true"/>
+    <col min="40" max="40" width="7" style="44" customWidth="true"/>
+    <col min="41" max="41" width="7" style="44" customWidth="true"/>
+    <col min="42" max="42" width="7" style="44" customWidth="true"/>
+    <col min="43" max="43" width="7" style="44" customWidth="true"/>
+    <col min="44" max="44" width="7" style="44" customWidth="true"/>
+    <col min="45" max="45" width="7" style="44" customWidth="true"/>
+    <col min="46" max="46" width="7" style="44" customWidth="true"/>
+    <col min="47" max="47" width="7" style="44" customWidth="true"/>
+    <col min="48" max="48" width="7" style="44" customWidth="true"/>
+    <col min="49" max="49" width="7" style="44" customWidth="true"/>
+    <col min="50" max="50" width="7" style="44" customWidth="true"/>
+    <col min="51" max="51" width="7" style="44" customWidth="true"/>
+    <col min="52" max="52" width="7" style="44" customWidth="true"/>
+    <col min="53" max="53" width="7" style="44" customWidth="true"/>
+    <col min="54" max="54" width="7" style="44" customWidth="true"/>
+    <col min="55" max="55" width="7" style="44" customWidth="true"/>
+    <col min="56" max="56" width="7" style="44" customWidth="true"/>
+    <col min="57" max="57" width="7" style="44" customWidth="true"/>
+    <col min="58" max="58" width="7" style="44" customWidth="true"/>
+    <col min="59" max="59" width="7" style="44" customWidth="true"/>
+    <col min="60" max="60" width="7" style="44" customWidth="true"/>
+    <col min="61" max="61" width="7" style="44" customWidth="true"/>
+    <col min="62" max="62" width="7" style="44" customWidth="true"/>
+    <col min="63" max="63" width="7" style="44" customWidth="true"/>
+    <col min="64" max="64" width="7" style="44" customWidth="true"/>
+    <col min="65" max="65" width="7" style="44" customWidth="true"/>
+    <col min="66" max="66" width="7" style="44" customWidth="true"/>
+    <col min="67" max="67" width="7" style="44" customWidth="true"/>
+    <col min="68" max="68" width="7" style="44" customWidth="true"/>
+    <col min="69" max="69" width="7" style="44" customWidth="true"/>
+    <col min="70" max="70" width="7" style="44" customWidth="true"/>
+    <col min="71" max="71" width="7" style="44" customWidth="true"/>
+    <col min="72" max="72" width="7" style="44" customWidth="true"/>
+    <col min="73" max="73" width="7" style="44" customWidth="true"/>
+    <col min="74" max="74" width="7" style="44" customWidth="true"/>
+    <col min="75" max="379" width="5.375" style="44" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="true" x14ac:dyDescent="0.3">
